--- a/Users/users.xlsx
+++ b/Users/users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lonew\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lonew\Documents\Users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31008BEA-A3FC-4F4A-8EB7-16C9550CC325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F486CFB-3884-48B6-9B1A-1757DA0004CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="3840" windowWidth="38700" windowHeight="15435" xr2:uid="{158CB974-5735-4F75-A1CC-DE10393C74E2}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15435" xr2:uid="{158CB974-5735-4F75-A1CC-DE10393C74E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>User</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sally Wang </t>
-  </si>
-  <si>
-    <t>V3v$e*BX#nFw57K</t>
   </si>
   <si>
     <t>Steve Jobs</t>
@@ -428,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFF83F5-0A76-4E70-A4B8-B4D632B53E16}">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,29 +454,21 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{9C35CA68-1427-4B68-84E5-4B36504CE938}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{9C35CA68-1427-4B68-84E5-4B36504CE938}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
